--- a/NWO_Control.xlsx
+++ b/NWO_Control.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konkr\OneDrive\Έγγραφα\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA16DD1-5249-459E-9BF0-C2C8D1C25664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC74982-B44F-4E91-907E-1F3BF3D3A638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{48624885-0AAB-4687-AE04-C5692DDE392F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{48624885-0AAB-4687-AE04-C5692DDE392F}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Report" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="US3" sheetId="8" r:id="rId4"/>
     <sheet name="US4" sheetId="10" r:id="rId5"/>
     <sheet name="US5" sheetId="9" r:id="rId6"/>
-    <sheet name="US..." sheetId="7" r:id="rId7"/>
+    <sheet name="US6" sheetId="11" r:id="rId7"/>
+    <sheet name="US7" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="144">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -420,6 +421,60 @@
   </si>
   <si>
     <t>D4_1</t>
+  </si>
+  <si>
+    <t>US6_1</t>
+  </si>
+  <si>
+    <t>US6-Return to home page from main button</t>
+  </si>
+  <si>
+    <t>Return to home page</t>
+  </si>
+  <si>
+    <t>When I press the logo of the website, I want to be redirected to home page</t>
+  </si>
+  <si>
+    <t>Click on logo icon</t>
+  </si>
+  <si>
+    <t>Redirected to home page</t>
+  </si>
+  <si>
+    <t>D6_1</t>
+  </si>
+  <si>
+    <t>Unable to return to home page</t>
+  </si>
+  <si>
+    <t>Clicking on the logo icon doesn't do any action</t>
+  </si>
+  <si>
+    <t>US7_1</t>
+  </si>
+  <si>
+    <t>US7-View full image of product</t>
+  </si>
+  <si>
+    <t>When I press the image of a product, I want to view it in full screen</t>
+  </si>
+  <si>
+    <t>Click on product image</t>
+  </si>
+  <si>
+    <t>Full screen of product displayed</t>
+  </si>
+  <si>
+    <t>D7_1</t>
+  </si>
+  <si>
+    <t>Full image doesn't load</t>
+  </si>
+  <si>
+    <t>Clicking on the product image doesn't load it in full image</t>
+  </si>
+  <si>
+    <t>D4_2</t>
   </si>
 </sst>
 </file>
@@ -957,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA5E904-0AC9-4BED-A871-AC80F7C33B3B}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
@@ -1180,6 +1235,36 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
     </row>
+    <row r="16" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A16" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="21">
+        <v>45282</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A17" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="21">
+        <v>45282</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
@@ -1195,7 +1280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC192840-8274-4346-A7E9-BBD1EE7DFCBA}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2180,8 +2265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E5ED73-9326-485C-A98C-0AA445D1C8A1}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2206,7 +2291,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1" thickBot="1">
@@ -2251,7 +2336,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12" customHeight="1" thickBot="1">
@@ -2320,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABE2B-9954-4908-BC33-CFE9179D01A7}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="B1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2346,7 +2431,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1" thickBot="1">
@@ -2376,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12" customHeight="1" thickBot="1">
@@ -2732,15 +2817,273 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC5D0E7-B55D-4C42-9609-5658688CFDF1}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E2473A-981C-4B83-8439-8ED417BA5C05}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="41.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="E5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="12" customHeight="1"/>
+    <row r="10" spans="1:6" ht="12" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8013F2E1-19E2-41D4-954E-A0192497FA7D}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="41.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="E5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="12" customHeight="1"/>
+    <row r="10" spans="1:6" ht="12" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>